--- a/doc/ue_sound.xlsx
+++ b/doc/ue_sound.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317937A-729C-4063-9455-212C20A5AFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0FF60-73BA-4E12-B6B6-589E4A961905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="描述" sheetId="1" r:id="rId1"/>
+    <sheet name="FAudioDevice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -413,7 +414,7 @@
   <dimension ref="A3:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,4 +485,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57D6FFF-98A0-437C-9F03-9CB280B6B7CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>